--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_5_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_5_sawtooth_10_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1887795727077162</v>
+        <v>0.202632771380117</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1887795727077162</v>
+        <v>0.202632771380117</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.528924980781706</v>
+        <v>4.52910222769592</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.6207320826452172, 10.67858204420863]</t>
+          <t>[-1.8978182703770035, 10.956022725768843]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1449679977339047</v>
+        <v>0.1626858907127919</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1449679977339047</v>
+        <v>0.1626858907127919</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.572368695490387</v>
+        <v>-1.522052897234694</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.2579744273879685, 1.1132370364071944]</t>
+          <t>[-4.459237620410737, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2445088344371908</v>
+        <v>0.3021937813501936</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2445088344371908</v>
+        <v>0.3021937813501936</v>
       </c>
       <c r="T2" t="n">
-        <v>9.242888789004915</v>
+        <v>10.82421084303839</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.642099653844352, 12.84367792416548]</t>
+          <t>[7.134592660229837, 14.513829025846944]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.212079775995804e-06</v>
+        <v>4.264318045343884e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>5.212079775995804e-06</v>
+        <v>4.264318045343884e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>6.504004004004162</v>
+        <v>6.295875875876025</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.604834834834945</v>
+        <v>-5.853603603603746</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.61284284284327</v>
+        <v>18.44535535535579</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1845058103698032</v>
+        <v>0.3390845021521771</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1845058103698032</v>
+        <v>0.3390845021521771</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.509838787554168</v>
+        <v>4.78571812961599</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.9333684183334867, 12.953045993441823]</t>
+          <t>[-4.0367656915865275, 13.608201950818508]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1429539727202453</v>
+        <v>0.2804097531561252</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1429539727202453</v>
+        <v>0.2804097531561252</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.698158191129618</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.440369196064853, 1.0440528138056164]</t>
+          <t>[-4.9372377038398145, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2187524584045877</v>
+        <v>0.1953494664740647</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2187524584045877</v>
+        <v>0.1953494664740647</v>
       </c>
       <c r="T3" t="n">
-        <v>11.56022702236907</v>
+        <v>10.60779792104998</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.240068052104487, 15.88038599263366]</t>
+          <t>[5.974502756445606, 15.241093085654352]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.489983664588635e-06</v>
+        <v>3.315568043738004e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.489983664588635e-06</v>
+        <v>3.315568043738004e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.024324324324493</v>
+        <v>8.06496496496516</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.318658658658762</v>
+        <v>-4.292642642642743</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.36730730730775</v>
+        <v>20.42257257257306</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1471138832091763</v>
+        <v>0.1818866304200764</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1471138832091763</v>
+        <v>0.1818866304200764</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.277386771915209</v>
+        <v>6.290804994987166</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.4867125828055485, 14.041486126635967]</t>
+          <t>[-2.3845429694774367, 14.966152959451769]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1104154328821145</v>
+        <v>0.1511003670737256</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1104154328821145</v>
+        <v>0.1511003670737256</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.880579450138389</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.792579783854699, -0.9685791164220783]</t>
+          <t>[-5.7360010011489315, 0.3018947895341544]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.003995102298774533</v>
+        <v>0.07655345371531252</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003995102298774533</v>
+        <v>0.07655345371531252</v>
       </c>
       <c r="T4" t="n">
-        <v>11.02635891067374</v>
+        <v>12.19571483248013</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.741276323392919, 15.311441497954553]</t>
+          <t>[7.624446662978768, 16.766983001981487]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.995277179897784e-06</v>
+        <v>2.628741006427404e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>4.995277179897784e-06</v>
+        <v>2.628741006427404e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>11.91533533533562</v>
+        <v>11.23891891891919</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.006466466466561</v>
+        <v>-1.248768768768802</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.82420420420468</v>
+        <v>23.72660660660718</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1718618317834565</v>
+        <v>0.1075263611616404</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1718618317834565</v>
+        <v>0.1075263611616404</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.926747410454768</v>
+        <v>6.538027655424814</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.7532697998769073, 13.606764620786443]</t>
+          <t>[-1.4512074373593826, 14.527262748209012]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1271175134553644</v>
+        <v>0.1062667956759342</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1271175134553644</v>
+        <v>0.1062667956759342</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.918316298830158</v>
+        <v>-2.578684660604234</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.622790455073623, -0.2138421425866932]</t>
+          <t>[-5.553606232472047, 0.3962369112635784]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.03505576042077618</v>
+        <v>0.08766340730824407</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03505576042077618</v>
+        <v>0.08766340730824407</v>
       </c>
       <c r="T5" t="n">
-        <v>10.36848438453208</v>
+        <v>10.39817948088656</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.137362058540317, 14.599606710523839]</t>
+          <t>[6.249107648529449, 14.547251313243663]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.139502293723282e-05</v>
+        <v>7.848489645301271e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.139502293723282e-05</v>
+        <v>7.848489645301271e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>12.07143143143172</v>
+        <v>10.66656656656682</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8845445445445677</v>
+        <v>-1.639009009009053</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.25831831831887</v>
+        <v>22.97214214214269</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06162560168125508</v>
+        <v>0.2611203826229866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06162560168125508</v>
+        <v>0.2611203826229866</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.070711324598785</v>
+        <v>4.71048506390186</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.005214963278898921, 14.14663761247647]</t>
+          <t>[-3.076743101269866, 12.497713229073586]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05016200605074506</v>
+        <v>0.2294482042407253</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05016200605074506</v>
+        <v>0.2294482042407253</v>
       </c>
       <c r="P6" t="n">
-        <v>3.050395269251351</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.6667108172198102, 4.434079721282892]</t>
+          <t>[-0.4276842851733855, 5.8240536480963945]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.775522542950107e-05</v>
+        <v>0.08895568865413828</v>
       </c>
       <c r="S6" t="n">
-        <v>5.775522542950107e-05</v>
+        <v>0.08895568865413828</v>
       </c>
       <c r="T6" t="n">
-        <v>11.44094540995107</v>
+        <v>10.13311552797529</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.425965275844059, 15.45592554405808]</t>
+          <t>[6.101488947919044, 14.164742108031529]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.599654616718965e-07</v>
+        <v>7.474629244441644e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>7.599654616718965e-07</v>
+        <v>7.474629244441644e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>13.37223223223255</v>
+        <v>14.82912912912948</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.64870870870889</v>
+        <v>1.899169169169211</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.09575575575622</v>
+        <v>27.75908908908976</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2257105883577184</v>
+        <v>0.2122700192968536</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2257105883577184</v>
+        <v>0.2122700192968536</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.896262418528286</v>
+        <v>5.413480767951274</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.97909864362458, 12.771623480681152]</t>
+          <t>[-3.11997443450551, 13.946935970408058]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2169638706423349</v>
+        <v>0.2079028559762759</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2169638706423349</v>
+        <v>0.2079028559762759</v>
       </c>
       <c r="P7" t="n">
-        <v>2.283079345852041</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, 5.396369362923006]</t>
+          <t>[-1.0000264903318854, 5.264290392501815]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1466378877837335</v>
+        <v>0.1771598562847116</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1466378877837335</v>
+        <v>0.1771598562847116</v>
       </c>
       <c r="T7" t="n">
-        <v>9.904164742754929</v>
+        <v>10.07864124367544</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.907369154820188, 13.90096033068967]</t>
+          <t>[5.731190902368384, 14.426091584982503]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.478856410227721e-06</v>
+        <v>2.742703615732367e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>9.478856410227721e-06</v>
+        <v>2.742703615732367e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>15.71855855855883</v>
+        <v>16.35135135135164</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.48477477477484</v>
+        <v>4.013513513513585</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.95234234234282</v>
+        <v>28.68918918918968</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05898726892177997</v>
+        <v>0.1570492044642284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05898726892177997</v>
+        <v>0.1570492044642284</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.825445715651396</v>
+        <v>6.018865312375361</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.07598616991435136, 13.574905261388441]</t>
+          <t>[-1.7750996662522827, 13.812830291003005]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.04758106580860555</v>
+        <v>0.1268600861068117</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04758106580860555</v>
+        <v>0.1268600861068117</v>
       </c>
       <c r="P8" t="n">
-        <v>1.603816069400195</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.25786846606042335, 2.9497636727399668]</t>
+          <t>[-0.27673689040630833, 3.7611059196130068]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02059521369439499</v>
+        <v>0.08904556596989033</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02059521369439499</v>
+        <v>0.08904556596989033</v>
       </c>
       <c r="T8" t="n">
-        <v>9.815316492863309</v>
+        <v>10.97774188490111</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.801659425211213, 13.828973560515404]</t>
+          <t>[6.544991466646566, 15.410492303155655]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.178618394925834e-05</v>
+        <v>9.575824879037853e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.178618394925834e-05</v>
+        <v>9.575824879037853e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>18.38774774774806</v>
+        <v>17.8873873873877</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.09879879879902</v>
+        <v>9.934684684684854</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.6766966966971</v>
+        <v>25.84009009009054</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1141690578931043</v>
+        <v>0.3053782653945739</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1141690578931043</v>
+        <v>0.3053782653945739</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.420666587518268</v>
+        <v>4.37909446646019</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.029110449563742, 14.870443624600277]</t>
+          <t>[-3.399602366186741, 12.15779129910712]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1329077493490951</v>
+        <v>0.2628579861249316</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1329077493490951</v>
+        <v>0.2628579861249316</v>
       </c>
       <c r="P9" t="n">
-        <v>2.119553001521041</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 4.8428955821103905]</t>
+          <t>[-0.861658045128733, 5.276869342065739]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1239900692364495</v>
+        <v>0.1543629387000203</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1239900692364495</v>
+        <v>0.1543629387000203</v>
       </c>
       <c r="T9" t="n">
-        <v>11.86543224186118</v>
+        <v>9.708247072937926</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.536688525016874, 16.194175958705483]</t>
+          <t>[5.676138047825297, 13.740356098050555]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.596704938267024e-06</v>
+        <v>1.516130093937029e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.596704938267024e-06</v>
+        <v>1.516130093937029e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>16.36114114114142</v>
+        <v>16.05405405405433</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.659669669669773</v>
+        <v>3.96396396396403</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.06261261261307</v>
+        <v>28.14414414414464</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05637603977300831</v>
+        <v>0.009770289082771777</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05637603977300831</v>
+        <v>0.009770289082771777</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.492714089910399</v>
+        <v>8.553639948315292</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.5978404813491718, 13.58326866116997]</t>
+          <t>[1.231005539841778, 15.876274356788805]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07173097076358026</v>
+        <v>0.02307039226356444</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07173097076358026</v>
+        <v>0.02307039226356444</v>
       </c>
       <c r="P10" t="n">
-        <v>2.056658253701426</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 3.880605940470274]</t>
+          <t>[1.1132370364071944, 3.100711067507043]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02797603855044084</v>
+        <v>9.953795620565309e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02797603855044084</v>
+        <v>9.953795620565309e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>9.854771781932904</v>
+        <v>10.67147447972491</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.077513426157774, 13.632030137708034]</t>
+          <t>[6.827067459097986, 14.515881500351828]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.9214181244418e-06</v>
+        <v>1.259122541785729e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.9214181244418e-06</v>
+        <v>1.259122541785729e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>16.60828828828857</v>
+        <v>16.45045045045074</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.441021021021186</v>
+        <v>12.53603603603626</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.77555555555596</v>
+        <v>20.36486486486522</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07416968845080762</v>
+        <v>0.1330698994536821</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07416968845080762</v>
+        <v>0.1330698994536821</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.677796102705231</v>
+        <v>4.775323171180317</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.0139286618340382, 12.3695208672445]</t>
+          <t>[-1.0440788686680804, 10.594725211028715]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.09435387932052675</v>
+        <v>0.1053437996380782</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09435387932052675</v>
+        <v>0.1053437996380782</v>
       </c>
       <c r="P11" t="n">
-        <v>2.069237203265349</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.05660527303765317, 4.081869133493044]</t>
+          <t>[0.018868424345884982, 3.3648690083494275]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.04414744475362919</v>
+        <v>0.04757684305919629</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04414744475362919</v>
+        <v>0.04757684305919629</v>
       </c>
       <c r="T11" t="n">
-        <v>9.048362149280063</v>
+        <v>8.276277232929409</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.565256150918646, 12.53146814764148]</t>
+          <t>[4.912367789334713, 11.640186676524106]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.230054148735007e-06</v>
+        <v>1.067283686206899e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.230054148735007e-06</v>
+        <v>1.067283686206899e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>16.55885885885914</v>
+        <v>18.0855855855859</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.650150150150299</v>
+        <v>11.4954954954957</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.46756756756799</v>
+        <v>24.6756756756761</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1242557272562483</v>
+        <v>0.4904976964000867</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1242557272562483</v>
+        <v>0.4904976964000867</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.785776423997151</v>
+        <v>3.261409120006352</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.7166065843684706, 13.288159432362772]</t>
+          <t>[-4.227436032969715, 10.750254272982419]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.12736652463743</v>
+        <v>0.3850659347299703</v>
       </c>
       <c r="O12" t="n">
-        <v>0.12736652463743</v>
+        <v>0.3850659347299703</v>
       </c>
       <c r="P12" t="n">
-        <v>1.13839493553504</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.1132370364071935, 3.3900269074772744]</t>
+          <t>[-2.0000529806637726, 4.125895456966775]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.3139774130099018</v>
+        <v>0.4881868269225356</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3139774130099018</v>
+        <v>0.4881868269225356</v>
       </c>
       <c r="T12" t="n">
-        <v>9.799894264576112</v>
+        <v>9.730116656576879</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.83948809347315, 13.760300435679074]</t>
+          <t>[5.85569064598123, 13.604542667172527]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9.70771875707932e-06</v>
+        <v>7.57768006454107e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>9.70771875707932e-06</v>
+        <v>7.57768006454107e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>20.21663663663698</v>
+        <v>20.56306306306342</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.36876876876896</v>
+        <v>8.497747747747894</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.064504504505</v>
+        <v>32.62837837837895</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_5_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_5_sawtooth_10_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.202632771380117</v>
+        <v>0.02169616183848611</v>
       </c>
       <c r="I2" t="n">
-        <v>0.202632771380117</v>
+        <v>0.02169616183848611</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.52910222769592</v>
+        <v>6.79356277195736</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.8978182703770035, 10.956022725768843]</t>
+          <t>[0.5522633533803596, 13.03486219053436]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1626858907127919</v>
+        <v>0.03356929704910061</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1626858907127919</v>
+        <v>0.03356929704910061</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.522052897234694</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.459237620410737, 1.4151318259413488]</t>
+          <t>[-2.5661057110403114, 0.0]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3021937813501936</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3021937813501936</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="T2" t="n">
-        <v>10.82421084303839</v>
+        <v>10.34457122096924</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.134592660229837, 14.513829025846944]</t>
+          <t>[6.840029432425991, 13.849113009512491]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.264318045343884e-07</v>
+        <v>3.765978220382493e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.264318045343884e-07</v>
+        <v>3.765978220382493e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>6.295875875876025</v>
+        <v>5.307267267267395</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.853603603603746</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.44535535535579</v>
+        <v>10.61453453453479</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3390845021521771</v>
+        <v>0.1088587492154528</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3390845021521771</v>
+        <v>0.1088587492154528</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.78571812961599</v>
+        <v>6.186006491172602</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.0367656915865275, 13.608201950818508]</t>
+          <t>[-1.5434306315228703, 13.915443613868074]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2804097531561252</v>
+        <v>0.1139712633579317</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2804097531561252</v>
+        <v>0.1139712633579317</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.94973718240808</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.9372377038398145, 1.0377633390236554]</t>
+          <t>[-3.924632263944007, -0.02515789912784605]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1953494664740647</v>
+        <v>0.0472362459049005</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1953494664740647</v>
+        <v>0.0472362459049005</v>
       </c>
       <c r="T3" t="n">
-        <v>10.60779792104998</v>
+        <v>11.12886406169165</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.974502756445606, 15.241093085654352]</t>
+          <t>[7.0035986931511935, 15.254129430232108]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.315568043738004e-05</v>
+        <v>2.14583194813045e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>3.315568043738004e-05</v>
+        <v>2.14583194813045e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>8.06496496496516</v>
+        <v>8.169029029029225</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.292642642642743</v>
+        <v>0.1040640640640635</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.42257257257306</v>
+        <v>16.23399399399439</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1818866304200764</v>
+        <v>0.3483386080458437</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1818866304200764</v>
+        <v>0.3483386080458437</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.290804994987166</v>
+        <v>4.553089443507985</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.3845429694774367, 14.966152959451769]</t>
+          <t>[-3.6518076776472492, 12.75798656466322]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1511003670737256</v>
+        <v>0.2696382949578866</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1511003670737256</v>
+        <v>0.2696382949578866</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.717053105807389</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.7360010011489315, 0.3018947895341544]</t>
+          <t>[-5.7422904759308935, 0.5346053564667317]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.07655345371531252</v>
+        <v>0.1016592962059197</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07655345371531252</v>
+        <v>0.1016592962059197</v>
       </c>
       <c r="T4" t="n">
-        <v>12.19571483248013</v>
+        <v>11.32342312621803</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.624446662978768, 16.766983001981487]</t>
+          <t>[7.074871548708746, 15.571974703727317]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.628741006427404e-06</v>
+        <v>2.676768774412253e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.628741006427404e-06</v>
+        <v>2.676768774412253e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>11.23891891891919</v>
+        <v>10.77063063063089</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.248768768768802</v>
+        <v>-2.211361361361414</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.72660660660718</v>
+        <v>23.75262262262319</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1075263611616404</v>
+        <v>0.1118919305619885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1075263611616404</v>
+        <v>0.1118919305619885</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.538027655424814</v>
+        <v>6.386814690562549</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.4512074373593826, 14.527262748209012]</t>
+          <t>[-1.4798401186129908, 14.253469499738088]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1062667956759342</v>
+        <v>0.1089800006652886</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1062667956759342</v>
+        <v>0.1089800006652886</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.578684660604234</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.553606232472047, 0.3962369112635784]</t>
+          <t>[-5.4466851611787, 0.5157369321208467]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08766340730824407</v>
+        <v>0.1027264113200999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08766340730824407</v>
+        <v>0.1027264113200999</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39817948088656</v>
+        <v>11.61654824323964</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.249107648529449, 14.547251313243663]</t>
+          <t>[7.502680372370837, 15.730416114108447]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.848489645301271e-06</v>
+        <v>9.070705799807399e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>7.848489645301271e-06</v>
+        <v>9.070705799807399e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>10.66656656656682</v>
+        <v>10.19827827827852</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.639009009009053</v>
+        <v>-2.133313313313364</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.97214214214269</v>
+        <v>22.52986986987041</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2611203826229866</v>
+        <v>0.1603241264280166</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2611203826229866</v>
+        <v>0.1603241264280166</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.71048506390186</v>
+        <v>5.680078016709837</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.076743101269866, 12.497713229073586]</t>
+          <t>[-1.6633980260369476, 13.023554059456622]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2294482042407253</v>
+        <v>0.1262672520009618</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2294482042407253</v>
+        <v>0.1262672520009618</v>
       </c>
       <c r="P6" t="n">
-        <v>2.698184681461504</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 5.8240536480963945]</t>
+          <t>[0.8239211964369617, 5.0001324516594305]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.08895568865413828</v>
+        <v>0.007330394488432868</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08895568865413828</v>
+        <v>0.007330394488432868</v>
       </c>
       <c r="T6" t="n">
-        <v>10.13311552797529</v>
+        <v>10.70108284860521</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.101488947919044, 14.164742108031529]</t>
+          <t>[6.635530378219955, 14.766635318990467]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.474629244441644e-06</v>
+        <v>3.351656634231759e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>7.474629244441644e-06</v>
+        <v>3.351656634231759e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>14.82912912912948</v>
+        <v>13.94458458458492</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.899169169169211</v>
+        <v>5.307267267267392</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.75908908908976</v>
+        <v>22.58190190190245</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2122700192968536</v>
+        <v>0.07115013801657888</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2122700192968536</v>
+        <v>0.07115013801657888</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.413480767951274</v>
+        <v>6.521120971245367</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.11997443450551, 13.946935970408058]</t>
+          <t>[-0.9926210993136362, 14.034863041804371]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2079028559762759</v>
+        <v>0.08728005619720802</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2079028559762759</v>
+        <v>0.08728005619720802</v>
       </c>
       <c r="P7" t="n">
-        <v>2.132131951084965</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0000264903318854, 5.264290392501815]</t>
+          <t>[-0.7861843477451931, 5.478132535088508]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1771598562847116</v>
+        <v>0.1384019999760155</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1771598562847116</v>
+        <v>0.1384019999760155</v>
       </c>
       <c r="T7" t="n">
-        <v>10.07864124367544</v>
+        <v>10.9479152679498</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.731190902368384, 14.426091584982503]</t>
+          <t>[7.012007550684633, 14.883822985214959]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.742703615732367e-05</v>
+        <v>1.21095312777264e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.742703615732367e-05</v>
+        <v>1.21095312777264e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>16.35135135135164</v>
+        <v>15.40248248248273</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.013513513513585</v>
+        <v>3.149389389389441</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.68918918918968</v>
+        <v>27.65557557557603</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1570492044642284</v>
+        <v>0.08845852116690123</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1570492044642284</v>
+        <v>0.08845852116690123</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.018865312375361</v>
+        <v>6.604217837136298</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.7750996662522827, 13.812830291003005]</t>
+          <t>[-0.5157893358103021, 13.724225010082899]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1268600861068117</v>
+        <v>0.06825386260635646</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1268600861068117</v>
+        <v>0.06825386260635646</v>
       </c>
       <c r="P8" t="n">
-        <v>1.742184514603349</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.27673689040630833, 3.7611059196130068]</t>
+          <t>[0.15723686954903915, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.08904556596989033</v>
+        <v>0.03251042427732664</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08904556596989033</v>
+        <v>0.03251042427732664</v>
       </c>
       <c r="T8" t="n">
-        <v>10.97774188490111</v>
+        <v>10.63053197906359</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.544991466646566, 15.410492303155655]</t>
+          <t>[6.42715031983512, 14.833913638292053]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.575824879037853e-06</v>
+        <v>6.72815029112428e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>9.575824879037853e-06</v>
+        <v>6.72815029112428e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>17.8873873873877</v>
+        <v>17.51847847847877</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.934684684684854</v>
+        <v>11.07207207207226</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.84009009009054</v>
+        <v>23.96488488488528</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3053782653945739</v>
+        <v>0.1250384188748743</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3053782653945739</v>
+        <v>0.1250384188748743</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.37909446646019</v>
+        <v>5.850080909408502</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.399602366186741, 12.15779129910712]</t>
+          <t>[-1.4659522129569602, 13.166114031773963]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2628579861249316</v>
+        <v>0.1142761816354279</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2628579861249316</v>
+        <v>0.1142761816354279</v>
       </c>
       <c r="P9" t="n">
-        <v>2.207605648468503</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.861658045128733, 5.276869342065739]</t>
+          <t>[-0.16352634433100022, 4.125895456966775]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1543629387000203</v>
+        <v>0.06935201441236827</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1543629387000203</v>
+        <v>0.06935201441236827</v>
       </c>
       <c r="T9" t="n">
-        <v>9.708247072937926</v>
+        <v>10.94111631087569</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.676138047825297, 13.740356098050555]</t>
+          <t>[6.908064231592405, 14.974168390158965]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.516130093937029e-05</v>
+        <v>1.93563300388e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.516130093937029e-05</v>
+        <v>1.93563300388e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>16.05405405405433</v>
+        <v>16.82954954954982</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.96396396396403</v>
+        <v>8.439379379379517</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.14414414414464</v>
+        <v>25.21971971972013</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009770289082771777</v>
+        <v>0.09498891064167714</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009770289082771777</v>
+        <v>0.09498891064167714</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.553639948315292</v>
+        <v>5.86845162231695</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[1.231005539841778, 15.876274356788805]</t>
+          <t>[-1.2910748475117728, 13.027978092145673]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02307039226356444</v>
+        <v>0.1057218945523104</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02307039226356444</v>
+        <v>0.1057218945523104</v>
       </c>
       <c r="P10" t="n">
-        <v>2.106974051957119</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 3.100711067507043]</t>
+          <t>[0.04402632347373103, 3.918342789162044]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.953795620565309e-05</v>
+        <v>0.04522198600386118</v>
       </c>
       <c r="S10" t="n">
-        <v>9.953795620565309e-05</v>
+        <v>0.04522198600386118</v>
       </c>
       <c r="T10" t="n">
-        <v>10.67147447972491</v>
+        <v>10.02375675467814</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.827067459097986, 14.515881500351828]</t>
+          <t>[6.235852682699532, 13.811660826656746]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.259122541785729e-06</v>
+        <v>3.04538174189517e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.259122541785729e-06</v>
+        <v>3.04538174189517e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>16.45045045045074</v>
+        <v>16.82954954954982</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.53603603603626</v>
+        <v>9.251331331331482</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.36486486486522</v>
+        <v>24.40776776776817</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1330698994536821</v>
+        <v>0.1173457675281673</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1330698994536821</v>
+        <v>0.1173457675281673</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.775323171180317</v>
+        <v>5.764708679116507</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.0440788686680804, 10.594725211028715]</t>
+          <t>[-1.5734233993427456, 13.102840757575759]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1053437996380782</v>
+        <v>0.1205976316607318</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1053437996380782</v>
+        <v>0.1205976316607318</v>
       </c>
       <c r="P11" t="n">
-        <v>1.691868716347656</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.018868424345884982, 3.3648690083494275]</t>
+          <t>[0.006289474781961069, 3.85544804134243]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.04757684305919629</v>
+        <v>0.04928709338899595</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04757684305919629</v>
+        <v>0.04928709338899595</v>
       </c>
       <c r="T11" t="n">
-        <v>8.276277232929409</v>
+        <v>9.386201305654872</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.912367789334713, 11.640186676524106]</t>
+          <t>[5.475260439219912, 13.297142172089831]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.067283686206899e-05</v>
+        <v>1.596382066026969e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>1.067283686206899e-05</v>
+        <v>1.596382066026969e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>18.0855855855859</v>
+        <v>17.02638638638667</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.4954954954957</v>
+        <v>9.497377377377529</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.6756756756761</v>
+        <v>24.5553953953958</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4904976964000867</v>
+        <v>0.2236757366294131</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4904976964000867</v>
+        <v>0.2236757366294131</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.261409120006352</v>
+        <v>5.01878226386119</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.227436032969715, 10.750254272982419]</t>
+          <t>[-2.0206503830882117, 12.058214910810591]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3850659347299703</v>
+        <v>0.157929159585853</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3850659347299703</v>
+        <v>0.157929159585853</v>
       </c>
       <c r="P12" t="n">
-        <v>1.062921238151501</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.0000529806637726, 4.125895456966775]</t>
+          <t>[-1.3207897042119248, 4.377474448245239]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.4881868269225356</v>
+        <v>0.285714833068583</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4881868269225356</v>
+        <v>0.285714833068583</v>
       </c>
       <c r="T12" t="n">
-        <v>9.730116656576879</v>
+        <v>9.125485431691043</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.85569064598123, 13.604542667172527]</t>
+          <t>[5.020782569453424, 13.230188293928663]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.57768006454107e-06</v>
+        <v>5.116150992634516e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>7.57768006454107e-06</v>
+        <v>5.116150992634516e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>20.56306306306342</v>
+        <v>18.60108108108138</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.497747747747894</v>
+        <v>7.455195195195312</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.62837837837895</v>
+        <v>29.74696696696745</v>
       </c>
     </row>
   </sheetData>
